--- a/Tabla_AP_mas_Comunas_Semanario.xlsx
+++ b/Tabla_AP_mas_Comunas_Semanario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\GitHub\ds_semanario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4ED24C1-9378-4EEB-AD4E-4B47B265BA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379FF79-441B-424C-98AA-6E4C18E8AA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="60" windowWidth="11136" windowHeight="12396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="408" windowWidth="19392" windowHeight="12396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1315,10 +1315,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1333,7 +1340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,9 +1357,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,7 +1370,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1665,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CE6A00-B9EA-4983-8C68-18E9FF39EF53}">
   <dimension ref="A1:L344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,7 +1719,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -14751,8 +14759,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Tabla_AP_mas_Comunas_Semanario.xlsx
+++ b/Tabla_AP_mas_Comunas_Semanario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\GitHub\ds_semanario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379FF79-441B-424C-98AA-6E4C18E8AA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8ECB3C-9A3B-4C98-8D09-C2285DF19DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="408" windowWidth="19392" windowHeight="12396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="264" windowWidth="9624" windowHeight="12396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="431">
   <si>
     <t>Name_AP</t>
   </si>
@@ -1309,13 +1309,22 @@
   </si>
   <si>
     <t>Kawésqar - Reserva Nacional</t>
+  </si>
+  <si>
+    <t>%pobreza</t>
+  </si>
+  <si>
+    <t>%poblacion indigena</t>
+  </si>
+  <si>
+    <t>tasa de educación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1326,6 +1335,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1357,10 +1373,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,9 +1405,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DA0225D0-D93A-475A-887C-415FA251D7BB}" name="Tabla2" displayName="Tabla2" ref="A1:L344" totalsRowShown="0">
-  <autoFilter ref="A1:L344" xr:uid="{DA0225D0-D93A-475A-887C-415FA251D7BB}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DA0225D0-D93A-475A-887C-415FA251D7BB}" name="Tabla2" displayName="Tabla2" ref="A1:O344" totalsRowShown="0">
+  <autoFilter ref="A1:O344" xr:uid="{DA0225D0-D93A-475A-887C-415FA251D7BB}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{DDAB43EB-F37F-4AD2-9698-DFE8FC9C1F50}" name="Name_AP"/>
     <tableColumn id="2" xr3:uid="{B041EF42-D46F-4433-8CEA-0B87E60208E7}" name="Designa"/>
     <tableColumn id="3" xr3:uid="{31085CE8-1D6E-4A19-BAA7-0E6300D4ED0C}" name="cod_AP"/>
@@ -1403,6 +1420,9 @@
     <tableColumn id="10" xr3:uid="{2ABF8932-F1E8-470B-A64E-1E799669ABE3}" name="COMUNA"/>
     <tableColumn id="11" xr3:uid="{FB97CD70-AC83-44A5-89A1-1A43AC31428A}" name="SUPERFICIE"/>
     <tableColumn id="12" xr3:uid="{4C5CE405-3E70-4A02-9B32-F392176E3AF8}" name="ID_AP_Data" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{791EEFA4-1798-401A-AEA3-C3535661F3D2}" name="%pobreza"/>
+    <tableColumn id="14" xr3:uid="{DC297998-295E-4154-993C-2920D4F20C96}" name="%poblacion indigena"/>
+    <tableColumn id="15" xr3:uid="{E29DC25A-5194-437C-ABE6-69CEE3F8FEB5}" name="tasa de educación"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1671,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CE6A00-B9EA-4983-8C68-18E9FF39EF53}">
-  <dimension ref="A1:L344"/>
+  <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1683,9 +1703,11 @@
     <col min="9" max="9" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
     <col min="12" max="12" width="12.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1722,8 +1744,17 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>428</v>
+      </c>
+      <c r="N1" t="s">
+        <v>429</v>
+      </c>
+      <c r="O1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1761,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1799,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1837,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1875,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1913,7 +1944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1951,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -1989,7 +2020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -2027,7 +2058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -2065,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -2103,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -2141,7 +2172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2179,7 +2210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2217,7 +2248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -2255,7 +2286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -14016,16 +14047,16 @@
       <c r="F325">
         <v>121</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="3">
         <v>12101</v>
       </c>
-      <c r="H325" t="s">
+      <c r="H325" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I325" t="s">
+      <c r="I325" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J325" t="s">
+      <c r="J325" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K325">
@@ -14244,16 +14275,16 @@
       <c r="F331">
         <v>121</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="3">
         <v>12101</v>
       </c>
-      <c r="H331" t="s">
+      <c r="H331" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I331" t="s">
+      <c r="I331" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J331" t="s">
+      <c r="J331" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K331">
@@ -14282,16 +14313,16 @@
       <c r="F332">
         <v>121</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="3">
         <v>12101</v>
       </c>
-      <c r="H332" t="s">
+      <c r="H332" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I332" t="s">
+      <c r="I332" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J332" t="s">
+      <c r="J332" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K332">
